--- a/data/long_bre/P19_1-Estudios-long_bre.xlsx
+++ b/data/long_bre/P19_1-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>22,97%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-17,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 19,73</t>
+          <t>-16,36; 20,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 9,59</t>
+          <t>-18,07; 8,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 15,26</t>
+          <t>-1,82; 16,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 136,13</t>
+          <t>-16,92; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 44,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 82,46</t>
+          <t>-42,04; 139,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-47,91; 38,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 93,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-43,87; 36,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,83</t>
+          <t>-12,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-25,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 11,42</t>
+          <t>-3,89; 26,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,21; -1,81</t>
+          <t>-29,64; 1,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 11,65</t>
+          <t>-12,61; 9,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 30,96</t>
+          <t>-10,24; 17,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,47; -4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 31,7</t>
+          <t>-7,4; 101,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,54; 2,3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-25,82; 25,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 48,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-17,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>-46,56%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94,05%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-14,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 5,96</t>
+          <t>-30,44; -3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 31,11</t>
+          <t>6,78; 30,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 3,5</t>
+          <t>-19,48; 4,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 23,47</t>
+          <t>-10,23; 12,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,69; 204,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 14,14</t>
+          <t>-67,4; -12,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 226,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-45,0; 17,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,24; 67,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 35,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 19,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-21,47%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 2,72</t>
+          <t>-5,02; 9,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 15,91</t>
+          <t>-14,72; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 13,33</t>
+          <t>-7,4; 5,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 6,42</t>
+          <t>-9,62; 7,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 50,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 38,19</t>
+          <t>-18,3; 51,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-43,57; 6,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,88; 19,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 29,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-11,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,56</t>
+          <t>-14,89; 3,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 6,75</t>
+          <t>-1,22; 14,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 0,4</t>
+          <t>-1,53; 12,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 34,74</t>
+          <t>-4,32; 12,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 22,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 1,9</t>
+          <t>-29,19; 9,77</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 45,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 33,76</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 32,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-17,02%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-10,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 5,52</t>
+          <t>-5,59; 11,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 2,13</t>
+          <t>-9,16; 6,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 8,23</t>
+          <t>-11,93; 1,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 23,38</t>
+          <t>-9,93; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 12,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 28,35</t>
+          <t>-15,46; 42,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-23,95; 21,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-38,24; 7,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-33,48; 24,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 7,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 16,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 18,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 22,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-12,13%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 10,67</t>
+          <t>-8,09; 10,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 14,14</t>
+          <t>-11,04; 4,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 2,89</t>
+          <t>-6,32; 7,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 55,44</t>
+          <t>-8,53; 8,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 50,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 17,36</t>
+          <t>-24,82; 42,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-38,9; 22,74</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 25,32</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-27,27; 43,98</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-9,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-9,28%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,6</t>
+          <t>-11,49; 9,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,42; -1,3</t>
+          <t>-13,46; 4,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,84</t>
+          <t>-4,82; 9,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 28,98</t>
+          <t>-13,46; 3,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -5,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 20,2</t>
+          <t>-22,2; 22,63</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,44; 12,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 23,27</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,27; 8,59</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-14,55%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 2,45</t>
+          <t>-7,97; 8,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,63</t>
+          <t>-2,03; 14,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,12</t>
+          <t>-10,29; 2,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 5,56</t>
+          <t>-3,48; 10,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 15,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 20,73</t>
+          <t>-28,48; 45,74</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 49,45</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-40,98; 15,67</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 60,62</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,09; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -0,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,05; 37,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,21; -1,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-5,85</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; 4,64</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-16,19; 6,17</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-29,29; 20,25</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-48,23; 30,48</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,04%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 5,99</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 15,57</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,06; 13,8</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; 53,9</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 10,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 14,05</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-8,93; 51,87</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 50,09</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-18,29%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 5,21</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; -0,64</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 6,07</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 4,01</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 21,8</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-32,36; -3,01</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 21,27</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 16,34</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-3,7%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 2,91</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 6,1</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 6,9</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 6,1</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 6,54</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 16,43</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 17,19</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 14,18</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-15,2%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,44</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 9,28</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 0,08</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 5,25</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; 21,05</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 32,46</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-30,05; 0,49</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 24,46</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P19_1-Estudios-long_bre.xlsx
+++ b/data/long_bre/P19_1-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
